--- a/hourly datasets/cap_gen_year-5final.xlsx
+++ b/hourly datasets/cap_gen_year-5final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,11 +478,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.07980254684109415</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -490,509 +490,679 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.07583158525043154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07980254684109415</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>0.003147905835586739</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0007066694810891484</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.539406795542709</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.175451737738439e-05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001762855890208767</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00453295578096471</v>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07897949108601829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07980254684109415</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>0.002122880227381964</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001195267588934897</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5719720849629968</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0007576066091514218</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.0002198068331577922</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00446556728792172</v>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.07795446547781351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07980254684109415</v>
+        <v>0.006818716880059835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001159813709709097</v>
+        <v>0.00168137056793241</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.87155733259247</v>
+        <v>6.398669531437461</v>
       </c>
       <c r="E5" t="n">
-        <v>2.108704155024932e-307</v>
+        <v>0.0003222463161229662</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08207575848496207</v>
+        <v>0.003523284384575951</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07752933519722623</v>
+        <v>0.01011414937554372</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08265030213049138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03598745866538204</v>
+        <v>0.01657114076009747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001216437178708811</v>
+        <v>0.01294462043818133</v>
       </c>
       <c r="D6" t="n">
-        <v>-30.06796386637685</v>
+        <v>3.950586022558934</v>
       </c>
       <c r="E6" t="n">
-        <v>1.083617648353911e-81</v>
+        <v>0.259782470326692</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03837165114425914</v>
+        <v>-0.00879989537445414</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03360326618650494</v>
+        <v>0.04194217689464907</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04381508817571211</v>
+        <v>0.09240272601052901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02619415203930383</v>
+        <v>0.1257131355860988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001211287208679177</v>
+        <v>0.07310079967184438</v>
       </c>
       <c r="D7" t="n">
-        <v>-21.57181165706718</v>
+        <v>9.136965276924572</v>
       </c>
       <c r="E7" t="n">
-        <v>4.016911800795589e-27</v>
+        <v>9.080892016264132</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02856825068049546</v>
+        <v>0.05607326066043971</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0238200533981122</v>
+        <v>0.07310079967184438</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05360839480179033</v>
+        <v>0.2015447208365304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02321942160065901</v>
+        <v>0.1316002697888477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001177455493946652</v>
+        <v>0.08280597133041581</v>
       </c>
       <c r="D8" t="n">
-        <v>-19.14645370379321</v>
+        <v>5.780996977241826</v>
       </c>
       <c r="E8" t="n">
-        <v>2.329883679139517e-18</v>
+        <v>5.726457404677218</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02552721078571944</v>
+        <v>0.05453957256460788</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02091163241559857</v>
+        <v>0.08280597133041581</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05658312524043515</v>
+        <v>0.2074318550392792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01960650803015259</v>
+        <v>0.1458089334744864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001181486564990452</v>
+        <v>0.08837208485250299</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.91571508343308</v>
+        <v>7.038364858876592</v>
       </c>
       <c r="E9" t="n">
-        <v>1.414372591998075e-06</v>
+        <v>6.975702409845225</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0219221980340695</v>
+        <v>0.0626624490313665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01729081802623569</v>
+        <v>0.08837208485250299</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06019603881094156</v>
+        <v>0.221640518724918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>20%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0137962605923515</v>
+        <v>-0.07583158525043154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001176161492675886</v>
+        <v>0.0005217811936168974</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.88558148976464</v>
+        <v>-158.9312206264254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.113950084312759</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01610151355974675</v>
+        <v>-0.07685425999964621</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01149100762495624</v>
+        <v>-0.07480891050121689</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06600628624874266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01180213003945152</v>
+        <v>-0.03208944258288336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001162353648701086</v>
+        <v>0.0005533304317203182</v>
       </c>
       <c r="D11" t="n">
-        <v>-10.00038433191166</v>
+        <v>-61.45664515634908</v>
       </c>
       <c r="E11" t="n">
-        <v>0.157161868248156</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01408031991741047</v>
+        <v>-0.03317395284494203</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.009523940161492569</v>
+        <v>-0.0310049323208247</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06800041680164264</v>
+        <v>0.04374214266754818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0122991661887884</v>
+        <v>-0.02191124259456369</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001206765552779012</v>
+        <v>0.0005540901271342327</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.694451108634219</v>
+        <v>-41.59653024125657</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02465299999749197</v>
+        <v>8.980367561304319e-231</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01466440249075965</v>
+        <v>-0.02299724183174583</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.009933929886817155</v>
+        <v>-0.02082524335738156</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06750338065230575</v>
+        <v>0.05392034265586785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01129914082930807</v>
+        <v>-0.01885740209498997</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001210092405347981</v>
+        <v>0.0005371419629511076</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.664119712834371</v>
+        <v>-36.61414020383948</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1162578066971238</v>
+        <v>4.607702551601126e-199</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01367089770239113</v>
+        <v>-0.01991018346787593</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008927383956224999</v>
+        <v>-0.01780462072210401</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06850340601178609</v>
+        <v>0.05697418315544157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01033797934197132</v>
+        <v>-0.01571388199847679</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001181111027692729</v>
+        <v>0.0005362836766911769</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.793758613069184</v>
+        <v>-30.40523081510505</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0326271349643809</v>
+        <v>4.750876254368663e-144</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01265293331508034</v>
+        <v>-0.01676498115428728</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.008023025368862294</v>
+        <v>-0.0146627828426663</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06946456749912283</v>
+        <v>0.06011770325195476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01036328411419578</v>
+        <v>-0.009437293247196627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001227593680925262</v>
+        <v>0.0005339264070832462</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.041167718317622</v>
+        <v>-18.70090529324256</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02125734459276753</v>
+        <v>5.204580603409424e-46</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01276934313178653</v>
+        <v>-0.01048377222912063</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.007957225096605035</v>
+        <v>-0.00839081426527262</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06943926272689838</v>
+        <v>0.06639429200323492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.007266650486142236</v>
+        <v>-0.007473542049845478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001243795679828735</v>
+        <v>0.0005296077436073473</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.514300806997701</v>
+        <v>-15.16657722950536</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001088722252810689</v>
+        <v>9.698244986982895e-28</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009704465082137148</v>
+        <v>-0.008511556598480925</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.004828835890147322</v>
+        <v>-0.00643552750121003</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07253589635495192</v>
+        <v>0.06835804320058607</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.00584628332877647</v>
+        <v>-0.008369918839504498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001255643094232675</v>
+        <v>0.0005516555121101367</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.025809656264767</v>
+        <v>-16.07704048253514</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1120587550105997</v>
+        <v>6.64934180852886e-35</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.008307318613022628</v>
+        <v>-0.00945114631728048</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.003385248044530311</v>
+        <v>-0.007288691361728513</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07395626351231768</v>
+        <v>0.06746166641092705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003794160925705582</v>
+        <v>-0.006834642358546209</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001258462725908688</v>
+        <v>0.0005560578762806755</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.836139567042879</v>
+        <v>-13.23104090931768</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07163210762028381</v>
+        <v>7.82188352252107e-21</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.006260722650558328</v>
+        <v>-0.00792449833237065</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.001327599200852837</v>
+        <v>-0.005744786384721768</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07600838591538857</v>
+        <v>0.06899694289188534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002994459302409017</v>
+        <v>-0.005569882318398344</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001237208599694206</v>
+        <v>0.0005452686004827275</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.727622647682878</v>
+        <v>-10.98765540548857</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07425063263538779</v>
+        <v>6.370248240575907e-16</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.005419363385317229</v>
+        <v>-0.006638591664270381</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.000569555219500805</v>
+        <v>-0.004501172972526309</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07680808753868514</v>
+        <v>0.0702617029320332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0007098321643804533</v>
+        <v>-0.006432836614972464</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001204839434191094</v>
+        <v>0.0005562938338018325</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3770012139141778</v>
+        <v>-12.47649270275535</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0702329778653337</v>
+        <v>2.426023993181101e-17</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.003071293359868516</v>
+        <v>-0.007523155047592909</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001651629031107609</v>
+        <v>-0.00534251818235202</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07909271467671371</v>
+        <v>0.06939874863545908</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>-0.003788248138857311</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0005662406734161853</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-7.579529083267804</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0001982447943883382</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.004898062062330771</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.002678434215383851</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.07980254684109415</v>
+        <v>0.07204333711157423</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>80%&gt;gen/cap&gt;75%</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.001977077191380415</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0005585592978857748</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.489024130927394</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1846580007453567</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.003071835829200818</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0008823185535600123</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.07385450805905112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.0007993037230699283</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0005549203389480512</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.913292878071929</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2907939118841092</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.001886930126893345</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0002883226807534879</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.07503228152736162</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.001267578312711584</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0005591556371085686</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.209690571768653</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.03132938893094828</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.002363505805619614</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0001716508198035535</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.07456400693771996</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.001588739919502577</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0005419654112399709</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-2.18971004877795</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2856785743342236</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.00265097512546101</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0005265047135441429</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.07424284533092897</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>gen/cap&gt;135%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1441788494195033</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.07735441339417989</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.33289195488689</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20.26428878817274</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.06860316671415534</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.07735441339417989</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2200104346699348</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-5final.xlsx
+++ b/hourly datasets/cap_gen_year-5final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,723 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.07583158525043154</v>
+        <v>0.1880725913802447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003147905835586739</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007066694810891484</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.539406795542709</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.175451737738439e-05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001762855890208767</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00453295578096471</v>
-      </c>
+        <v>0.09559710390669388</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.07897949108601829</v>
+        <v>0.2836696952869385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002122880227381964</v>
+        <v>0.1510524751983966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001195267588934897</v>
+        <v>0.01297507593763596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5719720849629968</v>
+        <v>17.18719027254989</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007576066091514218</v>
+        <v>0.05771751675679879</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0002198068331577922</v>
+        <v>0.1256178560764017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00446556728792172</v>
+        <v>0.1764870943203905</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07795446547781351</v>
+        <v>0.3391250665786413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006818716880059835</v>
+        <v>0.1779845313118368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00168137056793241</v>
+        <v>0.01359658199882654</v>
       </c>
       <c r="D5" t="n">
-        <v>6.398669531437461</v>
+        <v>20.57171661340502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003222463161229662</v>
+        <v>0.01580215701252231</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003523284384575951</v>
+        <v>0.1513317968817242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01011414937554372</v>
+        <v>0.2046372657419491</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08265030213049138</v>
+        <v>0.3660571226920814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01657114076009747</v>
+        <v>0.04453413997050377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01294462043818133</v>
+        <v>0.006668347637500935</v>
       </c>
       <c r="D6" t="n">
-        <v>3.950586022558934</v>
+        <v>4.079605483349251</v>
       </c>
       <c r="E6" t="n">
-        <v>0.259782470326692</v>
+        <v>0.01681100044957815</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00879989537445414</v>
+        <v>0.0314624787243593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04194217689464907</v>
+        <v>0.05760580121664776</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09240272601052901</v>
+        <v>0.2326067313507484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1257131355860988</v>
+        <v>0.01043783477834273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07310079967184438</v>
+        <v>0.00880152424180306</v>
       </c>
       <c r="D7" t="n">
-        <v>9.136965276924572</v>
+        <v>0.5323332147068555</v>
       </c>
       <c r="E7" t="n">
-        <v>9.080892016264132</v>
+        <v>0.03887219234474882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05607326066043971</v>
+        <v>-0.006815331702531453</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07310079967184438</v>
+        <v>0.0276910012592169</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2015447208365304</v>
+        <v>0.1985104261585874</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316002697888477</v>
+        <v>0.003933398020328643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08280597133041581</v>
+        <v>0.00020238629662523</v>
       </c>
       <c r="D8" t="n">
-        <v>5.780996977241826</v>
+        <v>0.2837240952940529</v>
       </c>
       <c r="E8" t="n">
-        <v>5.726457404677218</v>
+        <v>7.927817321965518e-83</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05453957256460788</v>
+        <v>0.003536626055141385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08280597133041581</v>
+        <v>0.0043301699855159</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2074318550392792</v>
+        <v>0.1920059894005733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1458089334744864</v>
+        <v>0.004015826779403169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08837208485250299</v>
+        <v>0.0002499802908057933</v>
       </c>
       <c r="D9" t="n">
-        <v>7.038364858876592</v>
+        <v>0.2345193225812576</v>
       </c>
       <c r="E9" t="n">
-        <v>6.975702409845225</v>
+        <v>2.062997279377916e-58</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626624490313665</v>
+        <v>0.003525748286466652</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08837208485250299</v>
+        <v>0.004505905272339695</v>
       </c>
       <c r="H9" t="n">
-        <v>0.221640518724918</v>
+        <v>0.1920884181596478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07583158525043154</v>
+        <v>0.004223004832812028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005217811936168974</v>
+        <v>0.0002380450526303365</v>
       </c>
       <c r="D10" t="n">
-        <v>-158.9312206264254</v>
+        <v>0.2589833517112979</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4.773060188465943e-70</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07685425999964621</v>
+        <v>0.00375632499870182</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07480891050121689</v>
+        <v>0.004689684666922237</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1922955962130567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03208944258288336</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005533304317203182</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-61.45664515634908</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.03317395284494203</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.0310049323208247</v>
-      </c>
+        <v>0.03148956516287641</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.04374214266754818</v>
+        <v>0.2195621565431211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02191124259456369</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005540901271342327</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-41.59653024125657</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.980367561304319e-231</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.02299724183174583</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.02082524335738156</v>
-      </c>
+        <v>0.04009389428101376</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.05392034265586785</v>
+        <v>0.2281664856612584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01885740209498997</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005371419629511076</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-36.61414020383948</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.607702551601126e-199</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.01991018346787593</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.01780462072210401</v>
-      </c>
+        <v>0.0476860042510685</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.05697418315544157</v>
+        <v>0.2357585956313132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01571388199847679</v>
+        <v>0.056054627564771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005362836766911769</v>
+        <v>0.009040940971138788</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.40523081510505</v>
+        <v>8.126623123894474</v>
       </c>
       <c r="E14" t="n">
-        <v>4.750876254368663e-144</v>
+        <v>0.04980304778512183</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01676498115428728</v>
+        <v>0.03833170627615557</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0146627828426663</v>
+        <v>0.07377754885338629</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06011770325195476</v>
+        <v>0.2441272189450157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.009437293247196627</v>
+        <v>0.05949143801937335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005339264070832462</v>
+        <v>0.008845465359062419</v>
       </c>
       <c r="D15" t="n">
-        <v>-18.70090529324256</v>
+        <v>9.150753779538713</v>
       </c>
       <c r="E15" t="n">
-        <v>5.204580603409424e-46</v>
+        <v>0.05251808944827788</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01048377222912063</v>
+        <v>0.04215170068035005</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.00839081426527262</v>
+        <v>0.07683117535839665</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06639429200323492</v>
+        <v>0.247564029399618</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.007473542049845478</v>
+        <v>0.06285931152351278</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005296077436073473</v>
+        <v>0.008830606984105023</v>
       </c>
       <c r="D16" t="n">
-        <v>-15.16657722950536</v>
+        <v>9.281126380735753</v>
       </c>
       <c r="E16" t="n">
-        <v>9.698244986982895e-28</v>
+        <v>0.03742866811173217</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.008511556598480925</v>
+        <v>0.04554865558109091</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00643552750121003</v>
+        <v>0.08016996746593461</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06835804320058607</v>
+        <v>0.2509319029037574</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.008369918839504498</v>
+        <v>0.06568699870112284</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005516555121101367</v>
+        <v>0.008689222253734811</v>
       </c>
       <c r="D17" t="n">
-        <v>-16.07704048253514</v>
+        <v>10.15076775283177</v>
       </c>
       <c r="E17" t="n">
-        <v>6.64934180852886e-35</v>
+        <v>0.05265612293179296</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.00945114631728048</v>
+        <v>0.04865359614103339</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.007288691361728513</v>
+        <v>0.08272040126121234</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06746166641092705</v>
+        <v>0.2537595900813675</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006834642358546209</v>
+        <v>-0.1880725913802447</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005560578762806755</v>
+        <v>0.01170277594891895</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.23104090931768</v>
+        <v>-33.28944777559816</v>
       </c>
       <c r="E18" t="n">
-        <v>7.82188352252107e-21</v>
+        <v>0.01467037756862944</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00792449833237065</v>
+        <v>-0.2110134259768802</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005744786384721768</v>
+        <v>-0.1651317567836091</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06899694289188534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005569882318398344</v>
+        <v>0.06599946126281732</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005452686004827275</v>
+        <v>0.008809042061937472</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.98765540548857</v>
+        <v>9.902846044563343</v>
       </c>
       <c r="E19" t="n">
-        <v>6.370248240575907e-16</v>
+        <v>0.04741340693143789</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.006638591664270381</v>
+        <v>0.0487312023650459</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.004501172972526309</v>
+        <v>0.08326772016058885</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0702617029320332</v>
+        <v>0.254072052643062</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006432836614972464</v>
+        <v>0.06567866701675514</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005562938338018325</v>
+        <v>0.009205147573644205</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.47649270275535</v>
+        <v>9.231897571191439</v>
       </c>
       <c r="E20" t="n">
-        <v>2.426023993181101e-17</v>
+        <v>0.04759618860331526</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007523155047592909</v>
+        <v>0.04763398017173601</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00534251818235202</v>
+        <v>0.08372335386177419</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06939874863545908</v>
+        <v>0.2537512583969998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003788248138857311</v>
+        <v>0.06639152393301639</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005662406734161853</v>
+        <v>0.009438816938096518</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.579529083267804</v>
+        <v>9.433950381713014</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0001982447943883382</v>
+        <v>0.05164104155379814</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004898062062330771</v>
+        <v>0.04788874738821575</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002678434215383851</v>
+        <v>0.08489430047781708</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07204333711157423</v>
+        <v>0.2544641153132611</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001977077191380415</v>
+        <v>0.06899438716721364</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005585592978857748</v>
+        <v>0.009417296868933465</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.489024130927394</v>
+        <v>9.861490071869861</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1846580007453567</v>
+        <v>0.0479608699813569</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.003071835829200818</v>
+        <v>0.05053380126127676</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0008823185535600123</v>
+        <v>0.08745497307315046</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07385450805905112</v>
+        <v>0.2570669785474583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0007993037230699283</v>
+        <v>0.0708686706739472</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005549203389480512</v>
+        <v>0.009560548361665559</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.913292878071929</v>
+        <v>9.507439581667656</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2907939118841092</v>
+        <v>0.05735888357781408</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.001886930126893345</v>
+        <v>0.05212728609443056</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002883226807534879</v>
+        <v>0.0896100552534638</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07503228152736162</v>
+        <v>0.2589412620541919</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001267578312711584</v>
+        <v>0.07275187338324948</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005591556371085686</v>
+        <v>0.009959931606670349</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.209690571768653</v>
+        <v>9.885765084249979</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03132938893094828</v>
+        <v>0.06492683325242563</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002363505805619614</v>
+        <v>0.0532275749294217</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0001716508198035535</v>
+        <v>0.09227617183707726</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07456400693771996</v>
+        <v>0.2608244647634941</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001588739919502577</v>
+        <v>0.08063055286310358</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005419654112399709</v>
+        <v>0.01027781763553838</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.18971004877795</v>
+        <v>10.89631900024567</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2856785743342236</v>
+        <v>0.05915340984844311</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00265097512546101</v>
+        <v>0.06048310811986542</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0005265047135441429</v>
+        <v>0.1007779976063416</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07424284533092897</v>
+        <v>0.2687031442433482</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0845418936153209</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01032596987816424</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.4840035256946</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.06881748857141784</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.06430008386140391</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1047837033692379</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2726144849955656</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.08215563187890858</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01042225613604837</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.984956131143194</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07805650701418508</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.06172515760592509</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1025861061518919</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2702282232591532</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.08248859821366536</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01128897907392203</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.512242140003572</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1045537621422679</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.06035896668564295</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1046182297416878</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.27056118959391</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.1441788494195033</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.07735441339417989</v>
-      </c>
-      <c r="D26" t="n">
-        <v>20.33289195488689</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20.26428878817274</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.06860316671415534</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.07735441339417989</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2200104346699348</v>
+      <c r="B29" t="n">
+        <v>0.004203108549082341</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0001787439829560479</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3432800806883717</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.579459369176043e-117</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.003852686595790732</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004553530502373951</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.192275699929327</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-5final.xlsx
+++ b/hourly datasets/cap_gen_year-5final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1880725913802447</v>
+        <v>0.1283471711907002</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09559710390669388</v>
+        <v>0.09449192008675117</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2836696952869385</v>
+        <v>0.2228390912774513</v>
       </c>
     </row>
     <row r="4">
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1510524751983966</v>
+        <v>0.1460624338489251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01297507593763596</v>
+        <v>0.01323110543871133</v>
       </c>
       <c r="D4" t="n">
-        <v>17.18719027254989</v>
+        <v>16.79724626981537</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05771751675679879</v>
+        <v>0.06172975172326142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1256178560764017</v>
+        <v>0.1201240062746966</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1764870943203905</v>
+        <v>0.1720008614231536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3391250665786413</v>
+        <v>0.2744096050396253</v>
       </c>
     </row>
     <row r="5">
@@ -546,25 +546,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1779845313118368</v>
+        <v>0.1724680637246444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01359658199882654</v>
+        <v>0.01384975000143224</v>
       </c>
       <c r="D5" t="n">
-        <v>20.57171661340502</v>
+        <v>20.16425648471064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01580215701252231</v>
+        <v>0.02873168118109861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1513317968817242</v>
+        <v>0.1453168840976969</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2046372657419491</v>
+        <v>0.1996192433515918</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3660571226920814</v>
+        <v>0.3008152349153446</v>
       </c>
     </row>
     <row r="6">
@@ -574,25 +574,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04453413997050377</v>
+        <v>0.0434377670228085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006668347637500935</v>
+        <v>0.007209298233841636</v>
       </c>
       <c r="D6" t="n">
-        <v>4.079605483349251</v>
+        <v>4.055302242545266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01681100044957815</v>
+        <v>0.04005911692821068</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0314624787243593</v>
+        <v>0.02930339605294511</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05760580121664776</v>
+        <v>0.05757213799267171</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2326067313507484</v>
+        <v>0.1717849382135087</v>
       </c>
     </row>
     <row r="7">
@@ -602,25 +602,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01043783477834273</v>
+        <v>0.01015070786269167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00880152424180306</v>
+        <v>0.009367810683311316</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5323332147068555</v>
+        <v>0.5258282562241506</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03887219234474882</v>
+        <v>0.06439913126973061</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006815331702531453</v>
+        <v>-0.00821508971853884</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0276910012592169</v>
+        <v>0.02851650544392218</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1985104261585874</v>
+        <v>0.1384978790533918</v>
       </c>
     </row>
     <row r="8">
@@ -630,25 +630,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003933398020328643</v>
+        <v>0.00161840244930126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00020238629662523</v>
+        <v>0.001747973746226867</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2837240952940529</v>
+        <v>0.1271266379842217</v>
       </c>
       <c r="E8" t="n">
-        <v>7.927817321965518e-83</v>
+        <v>0.05077036466357928</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003536626055141385</v>
+        <v>-0.001813190022051884</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0043301699855159</v>
+        <v>0.005049994920654397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1920059894005733</v>
+        <v>0.1299655736400014</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004015826779403169</v>
+        <v>0.001682823578696667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002499802908057933</v>
+        <v>0.001803103255346178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2345193225812576</v>
+        <v>0.103707750902776</v>
       </c>
       <c r="E9" t="n">
-        <v>2.062997279377916e-58</v>
+        <v>0.05162131332345483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003525748286466652</v>
+        <v>-0.001856937422826739</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004505905272339695</v>
+        <v>0.005222584580220077</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1920884181596478</v>
+        <v>0.1300299947693968</v>
       </c>
     </row>
     <row r="10">
@@ -686,25 +686,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004223004832812028</v>
+        <v>0.001692767392222611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002380450526303365</v>
+        <v>0.001701322642795205</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2589833517112979</v>
+        <v>0.1113599791684331</v>
       </c>
       <c r="E10" t="n">
-        <v>4.773060188465943e-70</v>
+        <v>0.04811252729149144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00375632499870182</v>
+        <v>-0.001647179855757642</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004689684666922237</v>
+        <v>0.005032714640202895</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1922955962130567</v>
+        <v>0.1300399385829228</v>
       </c>
     </row>
     <row r="11">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03148956516287641</v>
+        <v>0.03147538891119178</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -722,7 +722,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.2195621565431211</v>
+        <v>0.1598225601018919</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04009389428101376</v>
+        <v>0.03922476726033438</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.2281664856612584</v>
+        <v>0.1675719384510345</v>
       </c>
     </row>
     <row r="13">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0476860042510685</v>
+        <v>0.04784333304267697</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -758,7 +758,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2357585956313132</v>
+        <v>0.1761905042333771</v>
       </c>
     </row>
     <row r="14">
@@ -768,25 +768,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.056054627564771</v>
+        <v>0.05651374122956527</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009040940971138788</v>
+        <v>0.009238705980531569</v>
       </c>
       <c r="D14" t="n">
-        <v>8.126623123894474</v>
+        <v>8.300778374843642</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04980304778512183</v>
+        <v>0.05356358624673146</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03833170627615557</v>
+        <v>0.03840220760769205</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07377754885338629</v>
+        <v>0.07462527485143847</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2441272189450157</v>
+        <v>0.1848609124202654</v>
       </c>
     </row>
     <row r="15">
@@ -796,25 +796,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05949143801937335</v>
+        <v>0.05783578934588145</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008845465359062419</v>
+        <v>0.008968095987557463</v>
       </c>
       <c r="D15" t="n">
-        <v>9.150753779538713</v>
+        <v>9.267222408083235</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05251808944827788</v>
+        <v>0.05228423006023787</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04215170068035005</v>
+        <v>0.04025488389112222</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07683117535839665</v>
+        <v>0.07541669480064073</v>
       </c>
       <c r="H15" t="n">
-        <v>0.247564029399618</v>
+        <v>0.1861829605365816</v>
       </c>
     </row>
     <row r="16">
@@ -824,25 +824,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06285931152351278</v>
+        <v>0.06410734882481585</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008830606984105023</v>
+        <v>0.008798491287097924</v>
       </c>
       <c r="D16" t="n">
-        <v>9.281126380735753</v>
+        <v>9.492926164133314</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03742866811173217</v>
+        <v>0.03825106689739993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04554865558109091</v>
+        <v>0.04685962590760655</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08016996746593461</v>
+        <v>0.08135507174202508</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2509319029037574</v>
+        <v>0.192454520015516</v>
       </c>
     </row>
     <row r="17">
@@ -852,25 +852,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06568699870112284</v>
+        <v>0.06651823234722766</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008689222253734811</v>
+        <v>0.008956241903316169</v>
       </c>
       <c r="D17" t="n">
-        <v>10.15076775283177</v>
+        <v>10.26564344497893</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05265612293179296</v>
+        <v>0.05977553374702421</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04865359614103339</v>
+        <v>0.04896042422358238</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08272040126121234</v>
+        <v>0.08407604047087301</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2537595900813675</v>
+        <v>0.1948654035379278</v>
       </c>
     </row>
     <row r="18">
@@ -880,22 +880,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1880725913802447</v>
+        <v>-0.1283471711907002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01170277594891895</v>
+        <v>0.0146469865159258</v>
       </c>
       <c r="D18" t="n">
-        <v>-33.28944777559816</v>
+        <v>-16.76406377529664</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01467037756862944</v>
+        <v>0.03585037240326046</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2110134259768802</v>
+        <v>-0.1570596087897323</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1651317567836091</v>
+        <v>-0.09963473359166772</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -908,25 +908,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06599946126281732</v>
+        <v>0.06800771052348256</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008809042061937472</v>
+        <v>0.008825492094854425</v>
       </c>
       <c r="D19" t="n">
-        <v>9.902846044563343</v>
+        <v>10.45182833363226</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04741340693143789</v>
+        <v>0.04428145680998403</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0487312023650459</v>
+        <v>0.0507071708215549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08326772016058885</v>
+        <v>0.08530825022541025</v>
       </c>
       <c r="H19" t="n">
-        <v>0.254072052643062</v>
+        <v>0.1963548817141827</v>
       </c>
     </row>
     <row r="20">
@@ -936,25 +936,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06567866701675514</v>
+        <v>0.06579559924731158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009205147573644205</v>
+        <v>0.009428708209947607</v>
       </c>
       <c r="D20" t="n">
-        <v>9.231897571191439</v>
+        <v>9.697279918385963</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04759618860331526</v>
+        <v>0.04679189595954047</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04763398017173601</v>
+        <v>0.04731157480573898</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08372335386177419</v>
+        <v>0.08427962368888425</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2537512583969998</v>
+        <v>0.1941427704380118</v>
       </c>
     </row>
     <row r="21">
@@ -964,25 +964,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06639152393301639</v>
+        <v>0.0678054141321454</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009438816938096518</v>
+        <v>0.009562425714968336</v>
       </c>
       <c r="D21" t="n">
-        <v>9.433950381713014</v>
+        <v>9.899177679775631</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05164104155379814</v>
+        <v>0.05299972288932873</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04788874738821575</v>
+        <v>0.04905950269070068</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08489430047781708</v>
+        <v>0.08655132557359005</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2544641153132611</v>
+        <v>0.1961525853228456</v>
       </c>
     </row>
     <row r="22">
@@ -992,25 +992,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06899438716721364</v>
+        <v>0.07012762568867303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.009417296868933465</v>
+        <v>0.009507764203008078</v>
       </c>
       <c r="D22" t="n">
-        <v>9.861490071869861</v>
+        <v>10.31332800466905</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0479608699813569</v>
+        <v>0.04596065446455883</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05053380126127676</v>
+        <v>0.0514889202494399</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08745497307315046</v>
+        <v>0.08876633112790615</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2570669785474583</v>
+        <v>0.1984747968793732</v>
       </c>
     </row>
     <row r="23">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0708686706739472</v>
+        <v>0.07218723260172487</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009560548361665559</v>
+        <v>0.009696192544541805</v>
       </c>
       <c r="D23" t="n">
-        <v>9.507439581667656</v>
+        <v>9.95552957726091</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05735888357781408</v>
+        <v>0.05508957454943995</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05212728609443056</v>
+        <v>0.05317905962313235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0896100552534638</v>
+        <v>0.09119540558031736</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2589412620541919</v>
+        <v>0.200534403792425</v>
       </c>
     </row>
     <row r="24">
@@ -1048,25 +1048,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07275187338324948</v>
+        <v>0.07486459884528214</v>
       </c>
       <c r="C24" t="n">
-        <v>0.009959931606670349</v>
+        <v>0.0101176470140074</v>
       </c>
       <c r="D24" t="n">
-        <v>9.885765084249979</v>
+        <v>10.39028584542346</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06492683325242563</v>
+        <v>0.06818537152253543</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0532275749294217</v>
+        <v>0.05503021951344969</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09227617183707726</v>
+        <v>0.09469897817711447</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2608244647634941</v>
+        <v>0.2032117700359823</v>
       </c>
     </row>
     <row r="25">
@@ -1076,25 +1076,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08063055286310358</v>
+        <v>0.08300676007699219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01027781763553838</v>
+        <v>0.01043801347261542</v>
       </c>
       <c r="D25" t="n">
-        <v>10.89631900024567</v>
+        <v>11.39838693396223</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05915340984844311</v>
+        <v>0.05690338991671311</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06048310811986542</v>
+        <v>0.06254440571954402</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1007779976063416</v>
+        <v>0.1034691144344403</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2687031442433482</v>
+        <v>0.2113539312676924</v>
       </c>
     </row>
     <row r="26">
@@ -1104,25 +1104,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0845418936153209</v>
+        <v>0.08685996637668637</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01032596987816424</v>
+        <v>0.01050362606776458</v>
       </c>
       <c r="D26" t="n">
-        <v>11.4840035256946</v>
+        <v>11.84474282479547</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06881748857141784</v>
+        <v>0.06665017955462341</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06430008386140391</v>
+        <v>0.06626890866842584</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1047837033692379</v>
+        <v>0.1074510240849467</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2726144849955656</v>
+        <v>0.2152071375673865</v>
       </c>
     </row>
     <row r="27">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08215563187890858</v>
+        <v>0.08193508997604323</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01042225613604837</v>
+        <v>0.01061094176786122</v>
       </c>
       <c r="D27" t="n">
-        <v>9.984956131143194</v>
+        <v>10.06884644387057</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07805650701418508</v>
+        <v>0.07429421224318587</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06172515760592509</v>
+        <v>0.06113365236423705</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1025861061518919</v>
+        <v>0.1027365275878495</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2702282232591532</v>
+        <v>0.2102822611667434</v>
       </c>
     </row>
     <row r="28">
@@ -1160,25 +1160,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08248859821366536</v>
+        <v>0.08133877163213249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01128897907392203</v>
+        <v>0.01153018993159845</v>
       </c>
       <c r="D28" t="n">
-        <v>9.512242140003572</v>
+        <v>9.39399048153704</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1045537621422679</v>
+        <v>0.1179438253289816</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06035896668564295</v>
+        <v>0.05873502484228068</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1046182297416878</v>
+        <v>0.1039425184219842</v>
       </c>
       <c r="H28" t="n">
-        <v>0.27056118959391</v>
+        <v>0.2096859428228326</v>
       </c>
     </row>
     <row r="29">
@@ -1188,25 +1188,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004203108549082341</v>
+        <v>0.001749785190761427</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001787439829560479</v>
+        <v>0.001648375808876918</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3432800806883717</v>
+        <v>0.1557838948624331</v>
       </c>
       <c r="E29" t="n">
-        <v>1.579459369176043e-117</v>
+        <v>0.04998096453408336</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003852686595790732</v>
+        <v>-0.001486296159514917</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004553530502373951</v>
+        <v>0.004985866541037763</v>
       </c>
       <c r="H29" t="n">
-        <v>0.192275699929327</v>
+        <v>0.1300969563814616</v>
       </c>
     </row>
   </sheetData>
